--- a/2020/February/Others/Allocation Sheet.xlsx
+++ b/2020/February/Others/Allocation Sheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="134">
   <si>
     <t>BL60</t>
   </si>
@@ -472,7 +472,10 @@
     <t>BL98</t>
   </si>
   <si>
-    <t>MD ROBIUL ISLAM</t>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>MD SOHEL RANA</t>
   </si>
 </sst>
 </file>
@@ -919,41 +922,174 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -975,139 +1111,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1509,7 +1512,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2609,7 +2612,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3055,7 +3058,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3126,7 +3129,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3200,7 +3203,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3271,7 +3274,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3934,7 +3937,7 @@
   <dimension ref="A1:U58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O54" sqref="A1:O54"/>
+      <selection activeCell="P54" sqref="A1:P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3957,116 +3960,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65" t="s">
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
       <c r="A3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="36" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
     </row>
     <row r="4" spans="1:15" ht="19.5" customHeight="1" thickTop="1">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="71" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="73" t="s">
+      <c r="J4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="72" t="s">
+      <c r="L4" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="37" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="75">
+      <c r="B5" s="40">
         <v>780</v>
       </c>
       <c r="C5" s="34">
@@ -4077,10 +4080,10 @@
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
-      <c r="I5" s="76" t="s">
+      <c r="I5" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="77">
+      <c r="J5" s="42">
         <v>2780</v>
       </c>
       <c r="K5" s="34">
@@ -4092,10 +4095,10 @@
       <c r="O5" s="34"/>
     </row>
     <row r="6" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="75">
+      <c r="B6" s="40">
         <v>810</v>
       </c>
       <c r="C6" s="34">
@@ -4106,10 +4109,10 @@
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="J6" s="77">
+      <c r="J6" s="42">
         <v>2770</v>
       </c>
       <c r="K6" s="34">
@@ -4121,10 +4124,10 @@
       <c r="O6" s="34"/>
     </row>
     <row r="7" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="40">
         <v>800</v>
       </c>
       <c r="C7" s="34">
@@ -4135,10 +4138,10 @@
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
-      <c r="I7" s="76" t="s">
+      <c r="I7" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="J7" s="77">
+      <c r="J7" s="42">
         <v>6540</v>
       </c>
       <c r="K7" s="34">
@@ -4150,10 +4153,10 @@
       <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="75">
+      <c r="B8" s="40">
         <v>790</v>
       </c>
       <c r="C8" s="34">
@@ -4164,10 +4167,10 @@
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="42">
         <v>5290</v>
       </c>
       <c r="K8" s="34">
@@ -4179,10 +4182,10 @@
       <c r="O8" s="34"/>
     </row>
     <row r="9" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="75">
+      <c r="B9" s="40">
         <v>800</v>
       </c>
       <c r="C9" s="34">
@@ -4193,10 +4196,10 @@
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
-      <c r="I9" s="74" t="s">
+      <c r="I9" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="42">
         <v>5010</v>
       </c>
       <c r="K9" s="34">
@@ -4208,10 +4211,10 @@
       <c r="O9" s="34"/>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="75">
+      <c r="B10" s="40">
         <v>790</v>
       </c>
       <c r="C10" s="34">
@@ -4222,10 +4225,10 @@
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
-      <c r="I10" s="74" t="s">
+      <c r="I10" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="42">
         <v>5750</v>
       </c>
       <c r="K10" s="34">
@@ -4237,10 +4240,10 @@
       <c r="O10" s="34"/>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="40">
         <v>800</v>
       </c>
       <c r="C11" s="34">
@@ -4251,10 +4254,10 @@
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
-      <c r="I11" s="76" t="s">
+      <c r="I11" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="42">
         <v>5550</v>
       </c>
       <c r="K11" s="34">
@@ -4266,10 +4269,10 @@
       <c r="O11" s="34"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="75">
+      <c r="B12" s="40">
         <v>915</v>
       </c>
       <c r="C12" s="34">
@@ -4280,10 +4283,10 @@
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="42">
         <v>5940</v>
       </c>
       <c r="K12" s="34">
@@ -4295,10 +4298,10 @@
       <c r="O12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="40">
         <v>890</v>
       </c>
       <c r="C13" s="34">
@@ -4309,10 +4312,10 @@
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
-      <c r="I13" s="74" t="s">
+      <c r="I13" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="42">
         <v>5940</v>
       </c>
       <c r="K13" s="34">
@@ -4324,10 +4327,10 @@
       <c r="O13" s="34"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="75">
+      <c r="B14" s="40">
         <v>920</v>
       </c>
       <c r="C14" s="34">
@@ -4338,10 +4341,10 @@
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
-      <c r="I14" s="74" t="s">
+      <c r="I14" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="42">
         <v>6030</v>
       </c>
       <c r="K14" s="34">
@@ -4353,10 +4356,10 @@
       <c r="O14" s="34"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="40">
         <v>880</v>
       </c>
       <c r="C15" s="34">
@@ -4367,14 +4370,14 @@
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
-      <c r="I15" s="74" t="s">
+      <c r="I15" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="J15" s="77">
-        <v>6890</v>
+      <c r="J15" s="42">
+        <v>6470</v>
       </c>
       <c r="K15" s="34">
-        <v>7490</v>
+        <v>6990</v>
       </c>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
@@ -4382,10 +4385,10 @@
       <c r="O15" s="34"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="75">
+      <c r="B16" s="40">
         <v>845</v>
       </c>
       <c r="C16" s="34">
@@ -4396,10 +4399,10 @@
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
-      <c r="I16" s="74" t="s">
+      <c r="I16" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="78">
+      <c r="J16" s="43">
         <v>5750</v>
       </c>
       <c r="K16" s="34">
@@ -4411,10 +4414,10 @@
       <c r="O16" s="34"/>
     </row>
     <row r="17" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="40">
         <v>970</v>
       </c>
       <c r="C17" s="34">
@@ -4425,10 +4428,10 @@
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
-      <c r="I17" s="76" t="s">
+      <c r="I17" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="78">
+      <c r="J17" s="43">
         <v>3560</v>
       </c>
       <c r="K17" s="34">
@@ -4440,10 +4443,10 @@
       <c r="O17" s="34"/>
     </row>
     <row r="18" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="75">
+      <c r="B18" s="40">
         <v>1000</v>
       </c>
       <c r="C18" s="34">
@@ -4454,10 +4457,10 @@
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
-      <c r="I18" s="74" t="s">
+      <c r="I18" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="78">
+      <c r="J18" s="43">
         <v>3340</v>
       </c>
       <c r="K18" s="34">
@@ -4469,10 +4472,10 @@
       <c r="O18" s="34"/>
     </row>
     <row r="19" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="40">
         <v>995</v>
       </c>
       <c r="C19" s="34">
@@ -4483,10 +4486,10 @@
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
-      <c r="I19" s="74" t="s">
+      <c r="I19" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="77">
+      <c r="J19" s="42">
         <v>4500</v>
       </c>
       <c r="K19" s="34">
@@ -4498,10 +4501,10 @@
       <c r="O19" s="34"/>
     </row>
     <row r="20" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="75">
+      <c r="B20" s="40">
         <v>880</v>
       </c>
       <c r="C20" s="34">
@@ -4512,10 +4515,10 @@
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
-      <c r="I20" s="76" t="s">
+      <c r="I20" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="77">
+      <c r="J20" s="42">
         <v>3710</v>
       </c>
       <c r="K20" s="34">
@@ -4527,10 +4530,10 @@
       <c r="O20" s="34"/>
     </row>
     <row r="21" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="75">
+      <c r="B21" s="40">
         <v>900</v>
       </c>
       <c r="C21" s="34">
@@ -4541,10 +4544,10 @@
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
-      <c r="I21" s="76" t="s">
+      <c r="I21" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="77">
+      <c r="J21" s="42">
         <v>3620</v>
       </c>
       <c r="K21" s="34">
@@ -4556,10 +4559,10 @@
       <c r="O21" s="34"/>
     </row>
     <row r="22" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="75">
+      <c r="B22" s="40">
         <v>1040</v>
       </c>
       <c r="C22" s="34">
@@ -4570,10 +4573,10 @@
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
-      <c r="I22" s="76" t="s">
+      <c r="I22" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J22" s="77">
+      <c r="J22" s="42">
         <v>4080</v>
       </c>
       <c r="K22" s="34">
@@ -4585,10 +4588,10 @@
       <c r="O22" s="34"/>
     </row>
     <row r="23" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="75">
+      <c r="B23" s="40">
         <v>1040</v>
       </c>
       <c r="C23" s="34">
@@ -4599,10 +4602,10 @@
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
-      <c r="I23" s="74" t="s">
+      <c r="I23" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="J23" s="78">
+      <c r="J23" s="43">
         <v>4220</v>
       </c>
       <c r="K23" s="34">
@@ -4614,10 +4617,10 @@
       <c r="O23" s="34"/>
     </row>
     <row r="24" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="75">
+      <c r="B24" s="40">
         <v>930</v>
       </c>
       <c r="C24" s="34">
@@ -4628,10 +4631,10 @@
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
       <c r="H24" s="34"/>
-      <c r="I24" s="76" t="s">
+      <c r="I24" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="J24" s="78">
+      <c r="J24" s="43">
         <v>3710</v>
       </c>
       <c r="K24" s="34">
@@ -4643,10 +4646,10 @@
       <c r="O24" s="34"/>
     </row>
     <row r="25" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="75">
+      <c r="B25" s="40">
         <v>1190</v>
       </c>
       <c r="C25" s="34">
@@ -4657,10 +4660,10 @@
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
-      <c r="I25" s="76" t="s">
+      <c r="I25" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="J25" s="78">
+      <c r="J25" s="43">
         <v>4280</v>
       </c>
       <c r="K25" s="34">
@@ -4672,10 +4675,10 @@
       <c r="O25" s="34"/>
     </row>
     <row r="26" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="75">
+      <c r="B26" s="40">
         <v>1170</v>
       </c>
       <c r="C26" s="34">
@@ -4686,10 +4689,10 @@
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
-      <c r="I26" s="76" t="s">
+      <c r="I26" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="77">
+      <c r="J26" s="42">
         <v>5020</v>
       </c>
       <c r="K26" s="34">
@@ -4705,10 +4708,10 @@
       <c r="U26" s="30"/>
     </row>
     <row r="27" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="75">
+      <c r="B27" s="40">
         <v>1190</v>
       </c>
       <c r="C27" s="34">
@@ -4719,10 +4722,10 @@
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
-      <c r="I27" s="74" t="s">
+      <c r="I27" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="78">
+      <c r="J27" s="43">
         <v>5280</v>
       </c>
       <c r="K27" s="34">
@@ -4738,10 +4741,10 @@
       <c r="U27" s="30"/>
     </row>
     <row r="28" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="75">
+      <c r="B28" s="40">
         <v>1080</v>
       </c>
       <c r="C28" s="34">
@@ -4752,14 +4755,14 @@
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
-      <c r="I28" s="74" t="s">
+      <c r="I28" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="J28" s="77">
-        <v>4550</v>
+      <c r="J28" s="42">
+        <v>4180</v>
       </c>
       <c r="K28" s="34">
-        <v>4890</v>
+        <v>4690</v>
       </c>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
@@ -4771,10 +4774,10 @@
       <c r="U28" s="30"/>
     </row>
     <row r="29" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="75">
+      <c r="B29" s="40">
         <v>1100</v>
       </c>
       <c r="C29" s="34">
@@ -4785,10 +4788,10 @@
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
-      <c r="I29" s="76" t="s">
+      <c r="I29" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="77">
+      <c r="J29" s="42">
         <v>5100</v>
       </c>
       <c r="K29" s="34">
@@ -4804,10 +4807,10 @@
       <c r="U29" s="30"/>
     </row>
     <row r="30" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A30" s="74" t="s">
+      <c r="A30" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="75">
+      <c r="B30" s="40">
         <v>1010</v>
       </c>
       <c r="C30" s="34">
@@ -4818,10 +4821,10 @@
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
       <c r="H30" s="34"/>
-      <c r="I30" s="76" t="s">
+      <c r="I30" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J30" s="77">
+      <c r="J30" s="42">
         <v>5390</v>
       </c>
       <c r="K30" s="34">
@@ -4833,10 +4836,10 @@
       <c r="O30" s="34"/>
     </row>
     <row r="31" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="75">
+      <c r="B31" s="40">
         <v>1040</v>
       </c>
       <c r="C31" s="34">
@@ -4847,10 +4850,10 @@
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
       <c r="H31" s="34"/>
-      <c r="I31" s="76" t="s">
+      <c r="I31" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="J31" s="77">
+      <c r="J31" s="42">
         <v>3610</v>
       </c>
       <c r="K31" s="34">
@@ -4862,10 +4865,10 @@
       <c r="O31" s="34"/>
     </row>
     <row r="32" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="75">
+      <c r="B32" s="40">
         <v>970</v>
       </c>
       <c r="C32" s="34">
@@ -4876,10 +4879,10 @@
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
-      <c r="I32" s="76" t="s">
+      <c r="I32" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="J32" s="77">
+      <c r="J32" s="42">
         <v>3890</v>
       </c>
       <c r="K32" s="34">
@@ -4891,10 +4894,10 @@
       <c r="O32" s="34"/>
     </row>
     <row r="33" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="75">
+      <c r="B33" s="40">
         <v>1100</v>
       </c>
       <c r="C33" s="34">
@@ -4905,10 +4908,10 @@
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="H33" s="34"/>
-      <c r="I33" s="79" t="s">
+      <c r="I33" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="J33" s="78">
+      <c r="J33" s="43">
         <v>7350</v>
       </c>
       <c r="K33" s="34">
@@ -4920,10 +4923,10 @@
       <c r="O33" s="34"/>
     </row>
     <row r="34" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="75">
+      <c r="B34" s="40">
         <v>1050</v>
       </c>
       <c r="C34" s="34">
@@ -4934,10 +4937,10 @@
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
       <c r="H34" s="34"/>
-      <c r="I34" s="76" t="s">
+      <c r="I34" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="J34" s="77">
+      <c r="J34" s="42">
         <v>7890</v>
       </c>
       <c r="K34" s="34">
@@ -4949,10 +4952,10 @@
       <c r="O34" s="34"/>
     </row>
     <row r="35" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="75">
+      <c r="B35" s="40">
         <v>1130</v>
       </c>
       <c r="C35" s="34">
@@ -4963,10 +4966,10 @@
       <c r="F35" s="34"/>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
-      <c r="I35" s="76" t="s">
+      <c r="I35" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="J35" s="77">
+      <c r="J35" s="42">
         <v>8310</v>
       </c>
       <c r="K35" s="34">
@@ -4978,10 +4981,10 @@
       <c r="O35" s="34"/>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="75">
+      <c r="B36" s="40">
         <v>1100</v>
       </c>
       <c r="C36" s="34">
@@ -4992,10 +4995,10 @@
       <c r="F36" s="34"/>
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
-      <c r="I36" s="76" t="s">
+      <c r="I36" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="J36" s="77">
+      <c r="J36" s="42">
         <v>8310</v>
       </c>
       <c r="K36" s="34">
@@ -5007,10 +5010,10 @@
       <c r="O36" s="34"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A37" s="74" t="s">
+      <c r="A37" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="75">
+      <c r="B37" s="40">
         <v>1330</v>
       </c>
       <c r="C37" s="34">
@@ -5021,21 +5024,21 @@
       <c r="F37" s="34"/>
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
-      <c r="I37" s="35" t="s">
+      <c r="I37" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="35"/>
+      <c r="J37" s="77"/>
       <c r="K37" s="34"/>
       <c r="L37" s="34"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="80"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="45"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" hidden="1" customHeight="1">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="75">
+      <c r="B38" s="40">
         <v>1200</v>
       </c>
       <c r="C38" s="34">
@@ -5046,16 +5049,16 @@
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
       <c r="H38" s="34"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="77"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A39" s="79" t="s">
+      <c r="A39" s="44" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="34">
@@ -5069,18 +5072,18 @@
       <c r="F39" s="34"/>
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
-      <c r="I39" s="35" t="s">
+      <c r="I39" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="81"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="79"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A40" s="79" t="s">
+      <c r="A40" s="44" t="s">
         <v>116</v>
       </c>
       <c r="B40" s="34">
@@ -5097,19 +5100,19 @@
       <c r="I40" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="J40" s="78" t="s">
+      <c r="J40" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="35" t="s">
+      <c r="K40" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="82"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="80"/>
     </row>
     <row r="41" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A41" s="79" t="s">
+      <c r="A41" s="44" t="s">
         <v>128</v>
       </c>
       <c r="B41" s="34">
@@ -5126,15 +5129,15 @@
       <c r="I41" s="34">
         <v>1000</v>
       </c>
-      <c r="J41" s="78"/>
+      <c r="J41" s="43"/>
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
       <c r="N41" s="34"/>
-      <c r="O41" s="82"/>
+      <c r="O41" s="80"/>
     </row>
     <row r="42" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A42" s="79" t="s">
+      <c r="A42" s="44" t="s">
         <v>117</v>
       </c>
       <c r="B42" s="34">
@@ -5151,15 +5154,15 @@
       <c r="I42" s="34">
         <v>500</v>
       </c>
-      <c r="J42" s="78"/>
+      <c r="J42" s="43"/>
       <c r="K42" s="34"/>
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
       <c r="N42" s="34"/>
-      <c r="O42" s="82"/>
+      <c r="O42" s="80"/>
     </row>
     <row r="43" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A43" s="79" t="s">
+      <c r="A43" s="44" t="s">
         <v>111</v>
       </c>
       <c r="B43" s="34">
@@ -5176,15 +5179,15 @@
       <c r="I43" s="34">
         <v>100</v>
       </c>
-      <c r="J43" s="78"/>
+      <c r="J43" s="43"/>
       <c r="K43" s="34"/>
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
       <c r="N43" s="34"/>
-      <c r="O43" s="82"/>
+      <c r="O43" s="80"/>
     </row>
     <row r="44" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A44" s="79" t="s">
+      <c r="A44" s="44" t="s">
         <v>37</v>
       </c>
       <c r="B44" s="34">
@@ -5201,21 +5204,21 @@
       <c r="I44" s="34">
         <v>50</v>
       </c>
-      <c r="J44" s="78"/>
+      <c r="J44" s="43"/>
       <c r="K44" s="34"/>
       <c r="L44" s="34"/>
       <c r="M44" s="34"/>
       <c r="N44" s="34"/>
-      <c r="O44" s="82"/>
+      <c r="O44" s="80"/>
     </row>
     <row r="45" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="83">
+      <c r="B45" s="46">
         <v>1370</v>
       </c>
-      <c r="C45" s="83">
+      <c r="C45" s="46">
         <v>1490</v>
       </c>
       <c r="D45" s="34"/>
@@ -5226,15 +5229,15 @@
       <c r="I45" s="34">
         <v>20</v>
       </c>
-      <c r="J45" s="78"/>
+      <c r="J45" s="43"/>
       <c r="K45" s="34"/>
       <c r="L45" s="34"/>
       <c r="M45" s="34"/>
       <c r="N45" s="34"/>
-      <c r="O45" s="82"/>
+      <c r="O45" s="80"/>
     </row>
     <row r="46" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A46" s="79" t="s">
+      <c r="A46" s="44" t="s">
         <v>131</v>
       </c>
       <c r="B46" s="34">
@@ -5251,17 +5254,23 @@
       <c r="I46" s="34">
         <v>10</v>
       </c>
-      <c r="J46" s="78"/>
+      <c r="J46" s="43"/>
       <c r="K46" s="34"/>
       <c r="L46" s="34"/>
       <c r="M46" s="34"/>
       <c r="N46" s="34"/>
-      <c r="O46" s="82"/>
+      <c r="O46" s="80"/>
     </row>
     <row r="47" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A47" s="79"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
+      <c r="A47" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="34">
+        <v>740</v>
+      </c>
+      <c r="C47" s="34">
+        <v>790</v>
+      </c>
       <c r="D47" s="34"/>
       <c r="E47" s="34"/>
       <c r="F47" s="34"/>
@@ -5270,15 +5279,15 @@
       <c r="I47" s="34">
         <v>5</v>
       </c>
-      <c r="J47" s="78"/>
+      <c r="J47" s="43"/>
       <c r="K47" s="34"/>
       <c r="L47" s="34"/>
       <c r="M47" s="34"/>
       <c r="N47" s="34"/>
-      <c r="O47" s="82"/>
+      <c r="O47" s="80"/>
     </row>
     <row r="48" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A48" s="79"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
@@ -5289,23 +5298,23 @@
       <c r="I48" s="34">
         <v>2</v>
       </c>
-      <c r="J48" s="78"/>
+      <c r="J48" s="43"/>
       <c r="K48" s="34"/>
       <c r="L48" s="34"/>
       <c r="M48" s="34"/>
       <c r="N48" s="34"/>
-      <c r="O48" s="82"/>
+      <c r="O48" s="80"/>
     </row>
     <row r="49" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A49" s="74"/>
-      <c r="B49" s="83"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84" t="s">
+      <c r="A49" s="39"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47" t="s">
         <v>12</v>
       </c>
       <c r="J49" s="34"/>
@@ -5313,122 +5322,110 @@
       <c r="L49" s="34"/>
       <c r="M49" s="34"/>
       <c r="N49" s="34"/>
-      <c r="O49" s="85"/>
+      <c r="O49" s="81"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="28"/>
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
       <c r="L50" s="28"/>
-      <c r="M50" s="43" t="s">
+      <c r="M50" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="N50" s="43"/>
-      <c r="O50" s="44"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="60"/>
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A51" s="39"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
       <c r="D51" s="29"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
       <c r="L51" s="29"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="46"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="62"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="86"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="86"/>
-      <c r="H52" s="86"/>
-      <c r="I52" s="86"/>
-      <c r="J52" s="87"/>
-      <c r="K52" s="87"/>
-      <c r="L52" s="87"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="88"/>
-      <c r="O52" s="88"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="50"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="89" t="s">
+      <c r="A53" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="89"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="91" t="s">
+      <c r="B53" s="63"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="H53" s="92"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="86"/>
-      <c r="K53" s="86"/>
-      <c r="L53" s="90"/>
-      <c r="M53" s="94" t="s">
+      <c r="H53" s="66"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="N53" s="94"/>
-      <c r="O53" s="94"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="95"/>
-      <c r="B54" s="95"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="96"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="98"/>
-      <c r="J54" s="86"/>
-      <c r="K54" s="86"/>
-      <c r="L54" s="90"/>
-      <c r="M54" s="86"/>
-      <c r="N54" s="86"/>
-      <c r="O54" s="86"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
     </row>
     <row r="58" spans="1:16">
       <c r="P58" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A50:C51"/>
-    <mergeCell ref="E50:K51"/>
-    <mergeCell ref="M50:O51"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="G53:I54"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:O3"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="A2:O2"/>
@@ -5436,6 +5433,18 @@
     <mergeCell ref="I39:N39"/>
     <mergeCell ref="O39:O49"/>
     <mergeCell ref="K40:N40"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="A50:C51"/>
+    <mergeCell ref="E50:K51"/>
+    <mergeCell ref="M50:O51"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="G53:I54"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.2" header="0" footer="0"/>
@@ -5472,73 +5481,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="49" t="s">
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
     </row>
     <row r="4" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -5546,12 +5555,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickTop="1">
       <c r="A5" s="6" t="s">
@@ -6655,14 +6664,14 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="54" t="s">
+      <c r="I44" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="55"/>
+      <c r="J44" s="87"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
+      <c r="M44" s="86"/>
+      <c r="N44" s="86"/>
       <c r="O44" s="16"/>
     </row>
     <row r="45" spans="1:15" ht="15.95" customHeight="1">
@@ -6680,13 +6689,13 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="86"/>
+      <c r="N45" s="86"/>
+      <c r="O45" s="86"/>
     </row>
     <row r="46" spans="1:15" ht="15.95" customHeight="1">
       <c r="A46" s="9" t="s">
@@ -6703,15 +6712,15 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="56" t="s">
+      <c r="I46" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="57"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="88"/>
+      <c r="M46" s="88"/>
+      <c r="N46" s="88"/>
+      <c r="O46" s="89"/>
     </row>
     <row r="47" spans="1:15" ht="15.95" customHeight="1">
       <c r="A47" s="9" t="s">
@@ -6734,13 +6743,13 @@
       <c r="J47" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K47" s="54" t="s">
+      <c r="K47" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="58"/>
+      <c r="L47" s="86"/>
+      <c r="M47" s="86"/>
+      <c r="N47" s="86"/>
+      <c r="O47" s="90"/>
     </row>
     <row r="48" spans="1:15" ht="15.95" customHeight="1">
       <c r="A48" s="9" t="s">
@@ -6765,7 +6774,7 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
-      <c r="O48" s="58"/>
+      <c r="O48" s="90"/>
     </row>
     <row r="49" spans="1:15" ht="15.95" customHeight="1">
       <c r="A49" s="9" t="s">
@@ -6790,7 +6799,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="58"/>
+      <c r="O49" s="90"/>
     </row>
     <row r="50" spans="1:15" ht="15.95" customHeight="1">
       <c r="A50" s="4" t="s">
@@ -6815,7 +6824,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
-      <c r="O50" s="58"/>
+      <c r="O50" s="90"/>
     </row>
     <row r="51" spans="1:15" ht="15.95" customHeight="1">
       <c r="A51" s="4" t="s">
@@ -6840,7 +6849,7 @@
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
-      <c r="O51" s="58"/>
+      <c r="O51" s="90"/>
     </row>
     <row r="52" spans="1:15" ht="15.95" customHeight="1">
       <c r="A52" s="4" t="s">
@@ -6865,7 +6874,7 @@
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
-      <c r="O52" s="58"/>
+      <c r="O52" s="90"/>
     </row>
     <row r="53" spans="1:15" ht="15.95" customHeight="1">
       <c r="A53" s="4" t="s">
@@ -6890,7 +6899,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
-      <c r="O53" s="58"/>
+      <c r="O53" s="90"/>
     </row>
     <row r="54" spans="1:15" ht="15.95" customHeight="1">
       <c r="A54" s="4" t="s">
@@ -6915,7 +6924,7 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
-      <c r="O54" s="58"/>
+      <c r="O54" s="90"/>
     </row>
     <row r="55" spans="1:15" ht="15.95" customHeight="1">
       <c r="A55" s="4" t="s">
@@ -6940,7 +6949,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
-      <c r="O55" s="58"/>
+      <c r="O55" s="90"/>
     </row>
     <row r="56" spans="1:15" ht="15.95" customHeight="1">
       <c r="A56" s="9" t="s">
@@ -6965,7 +6974,7 @@
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
-      <c r="O56" s="59"/>
+      <c r="O56" s="91"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="17"/>
@@ -6985,49 +6994,49 @@
       <c r="O57" s="20"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="60" t="s">
+      <c r="A58" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="82"/>
       <c r="D58" s="21"/>
       <c r="E58" s="22"/>
-      <c r="F58" s="63" t="s">
+      <c r="F58" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="63"/>
-      <c r="K58" s="63"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="85"/>
+      <c r="K58" s="85"/>
       <c r="L58" s="21"/>
       <c r="M58" s="22"/>
-      <c r="N58" s="61" t="s">
+      <c r="N58" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="O58" s="61"/>
+      <c r="O58" s="83"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="62"/>
-      <c r="B59" s="62"/>
-      <c r="C59" s="62"/>
+      <c r="A59" s="84"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="84"/>
       <c r="D59" s="23"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="63"/>
-      <c r="K59" s="63"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="85"/>
+      <c r="K59" s="85"/>
       <c r="L59" s="23"/>
       <c r="M59" s="17"/>
-      <c r="N59" s="62"/>
-      <c r="O59" s="62"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="84"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="62"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
+      <c r="A60" s="84"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="84"/>
       <c r="D60" s="23"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -7038,15 +7047,15 @@
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="62"/>
-      <c r="O60" s="62"/>
+      <c r="N60" s="84"/>
+      <c r="O60" s="84"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="60" t="s">
+      <c r="A61" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="82"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
@@ -7057,11 +7066,24 @@
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
       <c r="M61" s="25"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="61"/>
+      <c r="N61" s="83"/>
+      <c r="O61" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I45:O45"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="O46:O56"/>
+    <mergeCell ref="K47:N47"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="A59:C60"/>
@@ -7069,19 +7091,6 @@
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="N61:O61"/>
     <mergeCell ref="F58:K59"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="I45:O45"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="O46:O56"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2020/February/Others/Allocation Sheet.xlsx
+++ b/2020/February/Others/Allocation Sheet.xlsx
@@ -475,7 +475,7 @@
     <t>B24</t>
   </si>
   <si>
-    <t>MD SOHEL RANA</t>
+    <t>MD ROBIUL ISLAM</t>
   </si>
 </sst>
 </file>
@@ -974,6 +974,39 @@
     <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1028,37 +1061,43 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1072,45 +1111,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1512,7 +1512,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2612,7 +2612,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3058,7 +3058,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3129,7 +3129,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3203,7 +3203,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3274,7 +3274,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3937,7 +3937,7 @@
   <dimension ref="A1:U58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P54" sqref="A1:P54"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3960,65 +3960,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="71" t="s">
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
     </row>
     <row r="3" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
       <c r="A3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
       <c r="J3" s="35"/>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76" t="s">
+      <c r="L3" s="63"/>
+      <c r="M3" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
     </row>
     <row r="4" spans="1:15" ht="19.5" customHeight="1" thickTop="1">
       <c r="A4" s="36" t="s">
@@ -5024,14 +5024,14 @@
       <c r="F37" s="34"/>
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
-      <c r="I37" s="77" t="s">
+      <c r="I37" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="77"/>
+      <c r="J37" s="53"/>
       <c r="K37" s="34"/>
       <c r="L37" s="34"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
       <c r="O37" s="45"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" hidden="1" customHeight="1">
@@ -5049,13 +5049,13 @@
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
       <c r="H38" s="34"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="77"/>
-      <c r="O38" s="77"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="44" t="s">
@@ -5072,15 +5072,15 @@
       <c r="F39" s="34"/>
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
-      <c r="I39" s="77" t="s">
+      <c r="I39" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="77"/>
-      <c r="O39" s="79"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="55"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1">
       <c r="A40" s="44" t="s">
@@ -5103,13 +5103,13 @@
       <c r="J40" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="77" t="s">
+      <c r="K40" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="80"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="56"/>
     </row>
     <row r="41" spans="1:15" ht="19.5" customHeight="1">
       <c r="A41" s="44" t="s">
@@ -5134,7 +5134,7 @@
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
       <c r="N41" s="34"/>
-      <c r="O41" s="80"/>
+      <c r="O41" s="56"/>
     </row>
     <row r="42" spans="1:15" ht="19.5" customHeight="1">
       <c r="A42" s="44" t="s">
@@ -5159,7 +5159,7 @@
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
       <c r="N42" s="34"/>
-      <c r="O42" s="80"/>
+      <c r="O42" s="56"/>
     </row>
     <row r="43" spans="1:15" ht="19.5" customHeight="1">
       <c r="A43" s="44" t="s">
@@ -5184,7 +5184,7 @@
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
       <c r="N43" s="34"/>
-      <c r="O43" s="80"/>
+      <c r="O43" s="56"/>
     </row>
     <row r="44" spans="1:15" ht="19.5" customHeight="1">
       <c r="A44" s="44" t="s">
@@ -5209,7 +5209,7 @@
       <c r="L44" s="34"/>
       <c r="M44" s="34"/>
       <c r="N44" s="34"/>
-      <c r="O44" s="80"/>
+      <c r="O44" s="56"/>
     </row>
     <row r="45" spans="1:15" ht="19.5" customHeight="1">
       <c r="A45" s="39" t="s">
@@ -5234,7 +5234,7 @@
       <c r="L45" s="34"/>
       <c r="M45" s="34"/>
       <c r="N45" s="34"/>
-      <c r="O45" s="80"/>
+      <c r="O45" s="56"/>
     </row>
     <row r="46" spans="1:15" ht="19.5" customHeight="1">
       <c r="A46" s="44" t="s">
@@ -5259,7 +5259,7 @@
       <c r="L46" s="34"/>
       <c r="M46" s="34"/>
       <c r="N46" s="34"/>
-      <c r="O46" s="80"/>
+      <c r="O46" s="56"/>
     </row>
     <row r="47" spans="1:15" ht="19.5" customHeight="1">
       <c r="A47" s="44" t="s">
@@ -5284,7 +5284,7 @@
       <c r="L47" s="34"/>
       <c r="M47" s="34"/>
       <c r="N47" s="34"/>
-      <c r="O47" s="80"/>
+      <c r="O47" s="56"/>
     </row>
     <row r="48" spans="1:15" ht="19.5" customHeight="1">
       <c r="A48" s="44"/>
@@ -5303,7 +5303,7 @@
       <c r="L48" s="34"/>
       <c r="M48" s="34"/>
       <c r="N48" s="34"/>
-      <c r="O48" s="80"/>
+      <c r="O48" s="56"/>
     </row>
     <row r="49" spans="1:16" ht="18.75" customHeight="1">
       <c r="A49" s="39"/>
@@ -5322,47 +5322,47 @@
       <c r="L49" s="34"/>
       <c r="M49" s="34"/>
       <c r="N49" s="34"/>
-      <c r="O49" s="81"/>
+      <c r="O49" s="57"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
       <c r="D50" s="28"/>
-      <c r="E50" s="57" t="s">
+      <c r="E50" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
       <c r="L50" s="28"/>
-      <c r="M50" s="59" t="s">
+      <c r="M50" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="N50" s="59"/>
-      <c r="O50" s="60"/>
+      <c r="N50" s="70"/>
+      <c r="O50" s="71"/>
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A51" s="55"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
       <c r="D51" s="29"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
       <c r="L51" s="29"/>
-      <c r="M51" s="61"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="62"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="73"/>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="48"/>
@@ -5382,27 +5382,27 @@
       <c r="O52" s="50"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="63" t="s">
+      <c r="A53" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
       <c r="D53" s="51"/>
       <c r="E53" s="48"/>
       <c r="F53" s="48"/>
-      <c r="G53" s="65" t="s">
+      <c r="G53" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="H53" s="66"/>
-      <c r="I53" s="67"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="78"/>
       <c r="J53" s="48"/>
       <c r="K53" s="48"/>
       <c r="L53" s="51"/>
-      <c r="M53" s="64" t="s">
+      <c r="M53" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="N53" s="64"/>
-      <c r="O53" s="64"/>
+      <c r="N53" s="75"/>
+      <c r="O53" s="75"/>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="52"/>
@@ -5411,9 +5411,9 @@
       <c r="D54" s="51"/>
       <c r="E54" s="48"/>
       <c r="F54" s="48"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="70"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="81"/>
       <c r="J54" s="48"/>
       <c r="K54" s="48"/>
       <c r="L54" s="51"/>
@@ -5426,6 +5426,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A50:C51"/>
+    <mergeCell ref="E50:K51"/>
+    <mergeCell ref="M50:O51"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="G53:I54"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="A2:O2"/>
@@ -5433,18 +5445,6 @@
     <mergeCell ref="I39:N39"/>
     <mergeCell ref="O39:O49"/>
     <mergeCell ref="K40:N40"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="A50:C51"/>
-    <mergeCell ref="E50:K51"/>
-    <mergeCell ref="M50:O51"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="G53:I54"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.2" header="0" footer="0"/>
@@ -5481,73 +5481,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="96" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="94" t="s">
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
     </row>
     <row r="4" spans="1:15" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -5555,12 +5555,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="93" t="s">
+      <c r="L4" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickTop="1">
       <c r="A5" s="6" t="s">
@@ -6664,14 +6664,14 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="86" t="s">
+      <c r="I44" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="87"/>
+      <c r="J44" s="90"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="86"/>
-      <c r="N44" s="86"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
       <c r="O44" s="16"/>
     </row>
     <row r="45" spans="1:15" ht="15.95" customHeight="1">
@@ -6689,13 +6689,13 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="86"/>
-      <c r="N45" s="86"/>
-      <c r="O45" s="86"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="89"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="89"/>
+      <c r="O45" s="89"/>
     </row>
     <row r="46" spans="1:15" ht="15.95" customHeight="1">
       <c r="A46" s="9" t="s">
@@ -6712,15 +6712,15 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="88" t="s">
+      <c r="I46" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="89"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="91"/>
+      <c r="L46" s="91"/>
+      <c r="M46" s="91"/>
+      <c r="N46" s="91"/>
+      <c r="O46" s="92"/>
     </row>
     <row r="47" spans="1:15" ht="15.95" customHeight="1">
       <c r="A47" s="9" t="s">
@@ -6743,13 +6743,13 @@
       <c r="J47" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K47" s="86" t="s">
+      <c r="K47" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="86"/>
-      <c r="M47" s="86"/>
-      <c r="N47" s="86"/>
-      <c r="O47" s="90"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="93"/>
     </row>
     <row r="48" spans="1:15" ht="15.95" customHeight="1">
       <c r="A48" s="9" t="s">
@@ -6774,7 +6774,7 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
-      <c r="O48" s="90"/>
+      <c r="O48" s="93"/>
     </row>
     <row r="49" spans="1:15" ht="15.95" customHeight="1">
       <c r="A49" s="9" t="s">
@@ -6799,7 +6799,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="90"/>
+      <c r="O49" s="93"/>
     </row>
     <row r="50" spans="1:15" ht="15.95" customHeight="1">
       <c r="A50" s="4" t="s">
@@ -6824,7 +6824,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
-      <c r="O50" s="90"/>
+      <c r="O50" s="93"/>
     </row>
     <row r="51" spans="1:15" ht="15.95" customHeight="1">
       <c r="A51" s="4" t="s">
@@ -6849,7 +6849,7 @@
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
-      <c r="O51" s="90"/>
+      <c r="O51" s="93"/>
     </row>
     <row r="52" spans="1:15" ht="15.95" customHeight="1">
       <c r="A52" s="4" t="s">
@@ -6874,7 +6874,7 @@
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
-      <c r="O52" s="90"/>
+      <c r="O52" s="93"/>
     </row>
     <row r="53" spans="1:15" ht="15.95" customHeight="1">
       <c r="A53" s="4" t="s">
@@ -6899,7 +6899,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
-      <c r="O53" s="90"/>
+      <c r="O53" s="93"/>
     </row>
     <row r="54" spans="1:15" ht="15.95" customHeight="1">
       <c r="A54" s="4" t="s">
@@ -6924,7 +6924,7 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
-      <c r="O54" s="90"/>
+      <c r="O54" s="93"/>
     </row>
     <row r="55" spans="1:15" ht="15.95" customHeight="1">
       <c r="A55" s="4" t="s">
@@ -6949,7 +6949,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
-      <c r="O55" s="90"/>
+      <c r="O55" s="93"/>
     </row>
     <row r="56" spans="1:15" ht="15.95" customHeight="1">
       <c r="A56" s="9" t="s">
@@ -6974,7 +6974,7 @@
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
-      <c r="O56" s="91"/>
+      <c r="O56" s="94"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="17"/>
@@ -6994,49 +6994,49 @@
       <c r="O57" s="20"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="82" t="s">
+      <c r="A58" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="82"/>
-      <c r="C58" s="82"/>
+      <c r="B58" s="95"/>
+      <c r="C58" s="95"/>
       <c r="D58" s="21"/>
       <c r="E58" s="22"/>
-      <c r="F58" s="85" t="s">
+      <c r="F58" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="85"/>
-      <c r="K58" s="85"/>
+      <c r="G58" s="98"/>
+      <c r="H58" s="98"/>
+      <c r="I58" s="98"/>
+      <c r="J58" s="98"/>
+      <c r="K58" s="98"/>
       <c r="L58" s="21"/>
       <c r="M58" s="22"/>
-      <c r="N58" s="83" t="s">
+      <c r="N58" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="O58" s="83"/>
+      <c r="O58" s="96"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="84"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
+      <c r="A59" s="97"/>
+      <c r="B59" s="97"/>
+      <c r="C59" s="97"/>
       <c r="D59" s="23"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="85"/>
+      <c r="F59" s="98"/>
+      <c r="G59" s="98"/>
+      <c r="H59" s="98"/>
+      <c r="I59" s="98"/>
+      <c r="J59" s="98"/>
+      <c r="K59" s="98"/>
       <c r="L59" s="23"/>
       <c r="M59" s="17"/>
-      <c r="N59" s="84"/>
-      <c r="O59" s="84"/>
+      <c r="N59" s="97"/>
+      <c r="O59" s="97"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="84"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
+      <c r="A60" s="97"/>
+      <c r="B60" s="97"/>
+      <c r="C60" s="97"/>
       <c r="D60" s="23"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -7047,15 +7047,15 @@
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="84"/>
-      <c r="O60" s="84"/>
+      <c r="N60" s="97"/>
+      <c r="O60" s="97"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="82" t="s">
+      <c r="A61" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="82"/>
-      <c r="C61" s="82"/>
+      <c r="B61" s="95"/>
+      <c r="C61" s="95"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
@@ -7066,11 +7066,24 @@
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
       <c r="M61" s="25"/>
-      <c r="N61" s="83"/>
-      <c r="O61" s="83"/>
+      <c r="N61" s="96"/>
+      <c r="O61" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="N59:O60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="F58:K59"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I45:O45"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="O46:O56"/>
+    <mergeCell ref="K47:N47"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="A1:E1"/>
@@ -7078,19 +7091,6 @@
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="I45:O45"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="O46:O56"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="N59:O60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="F58:K59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
